--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/decision_table.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/decision_table.xlsx
@@ -720,7 +720,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1132,14 +1132,14 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3916,14 +3916,14 @@
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -7171,7 +7171,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7912,7 +7912,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="AT33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AT34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="AT35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="AT38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="AT40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="AT41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10035,7 +10035,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="AT43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10494,12 +10494,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="AT45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11115,7 +11115,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -11215,7 +11215,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -11422,7 +11422,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -11487,7 +11487,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
@@ -11654,12 +11654,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -11876,7 +11876,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR50" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="AT50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR51" t="inlineStr">
@@ -12268,14 +12268,14 @@
       </c>
       <c r="AT51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -12400,7 +12400,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -12415,7 +12415,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD52" t="inlineStr">
@@ -12587,7 +12587,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -12607,7 +12607,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -13203,7 +13203,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -13535,7 +13535,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -13560,7 +13560,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD57" t="inlineStr">
@@ -13667,7 +13667,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -13792,7 +13792,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -13899,7 +13899,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -13974,12 +13974,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -14131,7 +14131,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -14271,7 +14271,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD60" t="inlineStr">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -14448,7 +14448,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -14558,7 +14558,7 @@
       </c>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -14568,7 +14568,7 @@
       </c>
       <c r="AP61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ61" t="inlineStr">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="AT61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15042,7 +15042,7 @@
       </c>
       <c r="AR63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS63" t="inlineStr">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="AT63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15366,12 +15366,12 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -15416,7 +15416,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -15431,7 +15431,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD65" t="inlineStr">
@@ -15728,7 +15728,7 @@
       </c>
       <c r="AP66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ66" t="inlineStr">
@@ -15738,7 +15738,7 @@
       </c>
       <c r="AR66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS66" t="inlineStr">
@@ -15748,7 +15748,7 @@
       </c>
       <c r="AT66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15760,7 +15760,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -15855,7 +15855,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -15915,7 +15915,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
@@ -15925,12 +15925,12 @@
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
@@ -15955,7 +15955,7 @@
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP67" t="inlineStr">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16087,12 +16087,12 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -16107,12 +16107,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -16142,12 +16142,12 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
@@ -16157,7 +16157,7 @@
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ68" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="AT68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16264,7 +16264,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="AR69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS69" t="inlineStr">
@@ -16444,14 +16444,14 @@
       </c>
       <c r="AT69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -16526,12 +16526,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -16551,7 +16551,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="AE71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF71" t="inlineStr">
@@ -17120,7 +17120,7 @@
       </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ72" t="inlineStr">
@@ -17130,7 +17130,7 @@
       </c>
       <c r="AR72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS72" t="inlineStr">
@@ -17140,7 +17140,7 @@
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -17152,7 +17152,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -17277,7 +17277,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -17307,7 +17307,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH73" t="inlineStr">
@@ -17372,7 +17372,7 @@
       </c>
       <c r="AT73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -17464,7 +17464,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -17504,7 +17504,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -17584,7 +17584,7 @@
       </c>
       <c r="AP74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ74" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="AT74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="AT75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -17968,7 +17968,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -18170,7 +18170,7 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
@@ -18215,7 +18215,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD77" t="inlineStr">
@@ -18280,17 +18280,17 @@
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS77" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18397,7 +18397,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -18532,14 +18532,14 @@
       </c>
       <c r="AT78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -18639,7 +18639,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -18664,7 +18664,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -18921,7 +18921,7 @@
       </c>
       <c r="AE80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF80" t="inlineStr">
@@ -19103,7 +19103,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -19143,7 +19143,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD81" t="inlineStr">
@@ -19235,7 +19235,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -19315,7 +19315,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -19360,7 +19360,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -19375,7 +19375,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD82" t="inlineStr">
@@ -19904,7 +19904,7 @@
       </c>
       <c r="AP84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ84" t="inlineStr">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="AT84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19956,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -20061,7 +20061,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -20071,7 +20071,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD85" t="inlineStr">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="AG85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH85" t="inlineStr">
@@ -20156,14 +20156,14 @@
       </c>
       <c r="AT85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -20263,7 +20263,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -20303,7 +20303,7 @@
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD86" t="inlineStr">
@@ -20400,7 +20400,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -20445,7 +20445,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
@@ -20595,7 +20595,7 @@
       </c>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP87" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -20652,7 +20652,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -20677,7 +20677,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -20722,7 +20722,7 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
@@ -20767,7 +20767,7 @@
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD88" t="inlineStr">
@@ -20827,7 +20827,7 @@
       </c>
       <c r="AO88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP88" t="inlineStr">
@@ -20837,7 +20837,7 @@
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR88" t="inlineStr">
@@ -20852,7 +20852,7 @@
       </c>
       <c r="AT88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20984,7 +20984,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="AP89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ89" t="inlineStr">
@@ -21074,7 +21074,7 @@
       </c>
       <c r="AR89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS89" t="inlineStr">
@@ -21084,7 +21084,7 @@
       </c>
       <c r="AT89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -21398,7 +21398,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -21423,7 +21423,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -21760,7 +21760,7 @@
       </c>
       <c r="AP92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ92" t="inlineStr">
@@ -21770,7 +21770,7 @@
       </c>
       <c r="AR92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS92" t="inlineStr">
@@ -21780,7 +21780,7 @@
       </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -21872,7 +21872,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -21912,7 +21912,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -22012,7 +22012,7 @@
       </c>
       <c r="AT93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22109,7 +22109,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
@@ -22229,7 +22229,7 @@
       </c>
       <c r="AQ94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR94" t="inlineStr">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="AT94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22401,7 +22401,7 @@
       </c>
       <c r="AE95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF95" t="inlineStr">
@@ -22558,7 +22558,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
@@ -22583,7 +22583,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -22623,7 +22623,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD96" t="inlineStr">
@@ -22865,7 +22865,7 @@
       </c>
       <c r="AE97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF97" t="inlineStr">
@@ -23172,7 +23172,7 @@
       </c>
       <c r="AT98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23718,12 +23718,12 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -23768,7 +23768,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/decision_table.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/decision_table.xlsx
@@ -730,12 +730,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -947,12 +947,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -962,22 +962,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1249,12 +1249,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3035,12 +3035,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -3105,12 +3105,12 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3292,17 +3292,17 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3978,12 +3978,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5370,22 +5370,22 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -5425,7 +5425,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -5602,12 +5602,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5617,12 +5617,12 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -6121,12 +6121,12 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6308,12 +6308,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7231,12 +7231,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7907,12 +7907,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="AT33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8139,12 +8139,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -8224,7 +8224,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AT34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="AT36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="AT37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9067,12 +9067,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -9087,12 +9087,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9102,7 +9102,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="AT38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9531,12 +9531,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="AT40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9738,7 +9738,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS41" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="AT41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="AT43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10928,7 +10928,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -10943,12 +10943,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -10993,12 +10993,12 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ46" t="inlineStr">
@@ -11083,7 +11083,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="AT46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -11130,7 +11130,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -11175,12 +11175,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -11215,7 +11215,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -11340,7 +11340,7 @@
       </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -11624,7 +11624,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -11639,7 +11639,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -11749,7 +11749,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ49" t="inlineStr">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -11804,7 +11804,7 @@
       </c>
       <c r="AT49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -11851,12 +11851,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -11886,7 +11886,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -11926,7 +11926,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
@@ -11981,7 +11981,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="AT50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12098,22 +12098,22 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -12213,7 +12213,7 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ51" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="AT51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -12330,7 +12330,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -12400,7 +12400,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -12445,7 +12445,7 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
@@ -12490,7 +12490,7 @@
       </c>
       <c r="AR52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS52" t="inlineStr">
@@ -12500,7 +12500,7 @@
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -13081,12 +13081,12 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD55" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ55" t="inlineStr">
@@ -13171,7 +13171,7 @@
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP55" t="inlineStr">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="AR55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS55" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="AT55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13510,7 +13510,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -13535,7 +13535,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -13550,7 +13550,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD57" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="AT57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13707,12 +13707,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -13722,7 +13722,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -13807,7 +13807,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD58" t="inlineStr">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ58" t="inlineStr">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="AR58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS58" t="inlineStr">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="AT58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -13959,17 +13959,17 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -14039,7 +14039,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD59" t="inlineStr">
@@ -14124,7 +14124,7 @@
       </c>
       <c r="AT59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14146,7 +14146,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -14206,7 +14206,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -14241,12 +14241,12 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -14271,7 +14271,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD60" t="inlineStr">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="AR60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS60" t="inlineStr">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="AT60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14423,17 +14423,17 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD61" t="inlineStr">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP61" t="inlineStr">
@@ -14578,7 +14578,7 @@
       </c>
       <c r="AR61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS61" t="inlineStr">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="AT61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14842,7 +14842,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -14927,7 +14927,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -14937,7 +14937,7 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
@@ -14952,7 +14952,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -14997,7 +14997,7 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ63" t="inlineStr">
@@ -15042,7 +15042,7 @@
       </c>
       <c r="AR63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS63" t="inlineStr">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="AT63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15099,12 +15099,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -15124,7 +15124,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -15134,7 +15134,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -15159,7 +15159,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -15169,12 +15169,12 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -15199,7 +15199,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr">
@@ -15229,7 +15229,7 @@
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ64" t="inlineStr">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="AR64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS64" t="inlineStr">
@@ -15284,7 +15284,7 @@
       </c>
       <c r="AT64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15336,7 +15336,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -15361,7 +15361,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -15401,12 +15401,12 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -15431,7 +15431,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD65" t="inlineStr">
@@ -15461,7 +15461,7 @@
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ65" t="inlineStr">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="AT65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15538,7 +15538,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -15563,12 +15563,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -15583,12 +15583,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -15598,7 +15598,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -15638,7 +15638,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr">
@@ -15738,7 +15738,7 @@
       </c>
       <c r="AR66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS66" t="inlineStr">
@@ -15748,7 +15748,7 @@
       </c>
       <c r="AT66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -15825,7 +15825,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -15855,7 +15855,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -15895,7 +15895,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD67" t="inlineStr">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16002,7 +16002,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -16027,12 +16027,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -16047,12 +16047,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -16157,7 +16157,7 @@
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ68" t="inlineStr">
@@ -16202,7 +16202,7 @@
       </c>
       <c r="AR68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS68" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="AT68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -16496,7 +16496,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -16511,12 +16511,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr">
@@ -16621,7 +16621,7 @@
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr">
@@ -16666,7 +16666,7 @@
       </c>
       <c r="AR70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS70" t="inlineStr">
@@ -16676,7 +16676,7 @@
       </c>
       <c r="AT70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17162,7 +17162,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -17202,12 +17202,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -17217,12 +17217,12 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -17317,7 +17317,7 @@
       </c>
       <c r="AI73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ73" t="inlineStr">
@@ -17372,7 +17372,7 @@
       </c>
       <c r="AT73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -17626,7 +17626,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -17651,7 +17651,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -17671,12 +17671,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -17686,7 +17686,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -17721,7 +17721,7 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="AT75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18584,7 +18584,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -18599,17 +18599,17 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -18649,7 +18649,7 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X79" t="inlineStr">
@@ -18709,7 +18709,7 @@
       </c>
       <c r="AI79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ79" t="inlineStr">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="AT79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -19018,7 +19018,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -19058,12 +19058,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -19073,7 +19073,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -19128,7 +19128,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -19203,7 +19203,7 @@
       </c>
       <c r="AO81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP81" t="inlineStr">
@@ -19228,7 +19228,7 @@
       </c>
       <c r="AT81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19310,7 +19310,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -19345,7 +19345,7 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
@@ -19375,7 +19375,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD82" t="inlineStr">
@@ -19435,7 +19435,7 @@
       </c>
       <c r="AO82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP82" t="inlineStr">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -19739,7 +19739,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -19774,7 +19774,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -19809,7 +19809,7 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X84" t="inlineStr">
@@ -19824,7 +19824,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -19914,7 +19914,7 @@
       </c>
       <c r="AR84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS84" t="inlineStr">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="AT84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19971,7 +19971,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -20041,12 +20041,12 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="AI85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ85" t="inlineStr">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="AT85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20178,7 +20178,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -20208,7 +20208,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -20233,7 +20233,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -20278,7 +20278,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -20388,7 +20388,7 @@
       </c>
       <c r="AT86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -20899,12 +20899,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -20914,17 +20914,17 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -20934,7 +20934,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -20959,7 +20959,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -20974,7 +20974,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -20999,7 +20999,7 @@
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD89" t="inlineStr">
@@ -21029,7 +21029,7 @@
       </c>
       <c r="AI89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ89" t="inlineStr">
@@ -21084,7 +21084,7 @@
       </c>
       <c r="AT89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -21338,7 +21338,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -21378,12 +21378,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -21393,7 +21393,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -21433,12 +21433,12 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -21548,7 +21548,7 @@
       </c>
       <c r="AT91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21570,7 +21570,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -21610,22 +21610,22 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
@@ -21725,7 +21725,7 @@
       </c>
       <c r="AI92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ92" t="inlineStr">
@@ -21755,7 +21755,7 @@
       </c>
       <c r="AO92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP92" t="inlineStr">
@@ -21770,7 +21770,7 @@
       </c>
       <c r="AR92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS92" t="inlineStr">
@@ -21780,7 +21780,7 @@
       </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21827,12 +21827,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -21842,27 +21842,27 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -21902,7 +21902,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -21912,7 +21912,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -21927,7 +21927,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD93" t="inlineStr">
@@ -21987,7 +21987,7 @@
       </c>
       <c r="AO93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP93" t="inlineStr">
@@ -22012,7 +22012,7 @@
       </c>
       <c r="AT93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22266,7 +22266,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -22326,7 +22326,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -22361,12 +22361,12 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -22376,7 +22376,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="AT95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22962,7 +22962,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -22987,7 +22987,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -23017,7 +23017,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -23047,7 +23047,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -23087,7 +23087,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD98" t="inlineStr">
@@ -23117,7 +23117,7 @@
       </c>
       <c r="AI98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ98" t="inlineStr">
@@ -23147,7 +23147,7 @@
       </c>
       <c r="AO98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP98" t="inlineStr">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="AR98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS98" t="inlineStr">
@@ -23172,7 +23172,7 @@
       </c>
       <c r="AT98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -23194,7 +23194,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -23234,12 +23234,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -23249,12 +23249,12 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -23279,7 +23279,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -23349,7 +23349,7 @@
       </c>
       <c r="AI99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ99" t="inlineStr">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="AT99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -23426,7 +23426,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -23451,12 +23451,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -23466,7 +23466,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -23476,12 +23476,12 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -23511,7 +23511,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -23521,7 +23521,7 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X100" t="inlineStr">
@@ -23551,7 +23551,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD100" t="inlineStr">
@@ -23581,7 +23581,7 @@
       </c>
       <c r="AI100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ100" t="inlineStr">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="AT100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -23683,7 +23683,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -23703,7 +23703,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -23718,7 +23718,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -23743,7 +23743,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -23753,12 +23753,12 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -23783,7 +23783,7 @@
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD101" t="inlineStr">
@@ -23858,7 +23858,7 @@
       </c>
       <c r="AR101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS101" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="AT101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
